--- a/performance1.xlsx
+++ b/performance1.xlsx
@@ -3194,6 +3194,26 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="n">
+        <v>0.4277501106262207</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1072</v>
+      </c>
+      <c r="C38" t="n">
+        <v>35346666</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.0003990206255841611</v>
+      </c>
+      <c r="E38" t="n">
+        <v>32972.63619402985</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Phase1/InstancesV1/InstanceBordeauxV1.xlsx</t>
+        </is>
+      </c>
       <c r="G38">
         <f>LOG(A38)</f>
         <v/>
